--- a/inst/extdata/examples/xlsx/bar-group-0.xlsx
+++ b/inst/extdata/examples/xlsx/bar-group-0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">tab</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t xml:space="preserve">1, 2, 4, 5, 6, 8, 9, 10, 12, 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -475,7 +481,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -493,18 +507,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>8.723</v>
@@ -515,7 +529,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>9.711</v>
@@ -533,7 +547,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
         <v>8.177</v>
@@ -544,7 +558,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" t="n">
         <v>10.551</v>
@@ -555,7 +569,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" t="n">
         <v>16.969</v>
@@ -573,7 +587,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
         <v>10.561</v>
@@ -584,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="n">
         <v>9.359</v>
@@ -595,7 +609,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="n">
         <v>8.699</v>
@@ -613,7 +627,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="n">
         <v>11.197</v>
@@ -624,7 +638,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
         <v>8.027</v>
